--- a/sofaplayer/Bundesliga/Hamburger SV_stats.xlsx
+++ b/sofaplayer/Bundesliga/Hamburger SV_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>135264</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6625</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0.7568</v>
       </c>
       <c r="L2" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M2" t="n">
         <v>7</v>
@@ -1101,34 +1101,34 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.18822049</v>
+        <v>0.22577389</v>
       </c>
       <c r="AB2" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>62.5</v>
+        <v>60.759493670886</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="AR2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -1179,34 +1179,34 @@
         <v>75</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>50.980392156863</v>
+        <v>52.727272727273</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
       </c>
       <c r="BD2" t="n">
-        <v>41.176470588235</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BE2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BF2" t="n">
-        <v>55.882352941176</v>
+        <v>59.459459459459</v>
       </c>
       <c r="BG2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI2" t="n">
         <v>2</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK2" t="n">
         <v>3</v>
@@ -1221,22 +1221,22 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="BR2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS2" t="n">
         <v>1</v>
       </c>
       <c r="BT2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS2" t="n">
         <v>4</v>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="CU2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV2" t="n">
         <v>15</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="DG2" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,40 +1391,40 @@
         <v>1012235</v>
       </c>
       <c r="E3" t="n">
-        <v>6.54</v>
+        <v>6.6285714285714</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.8479</v>
+      </c>
+      <c r="L3" t="n">
+        <v>350</v>
+      </c>
+      <c r="M3" t="n">
+        <v>46</v>
+      </c>
+      <c r="N3" t="n">
         <v>16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1313</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.7576</v>
-      </c>
-      <c r="L3" t="n">
-        <v>656.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>39</v>
-      </c>
-      <c r="N3" t="n">
-        <v>14</v>
       </c>
       <c r="O3" t="n">
         <v>9</v>
       </c>
       <c r="P3" t="n">
-        <v>5.1282051282051</v>
+        <v>8.695652173913</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.817312</v>
+        <v>0.8379184</v>
       </c>
       <c r="AB3" t="n">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1469,34 +1469,34 @@
         <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AF3" t="n">
-        <v>73.79912663755501</v>
+        <v>73.360655737705</v>
       </c>
       <c r="AG3" t="n">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="AH3" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AI3" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>80</v>
+        <v>71.428571428571</v>
       </c>
       <c r="AM3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.3333333333333</v>
+        <v>15.384615384615</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -1511,13 +1511,13 @@
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1529,40 +1529,40 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ3" t="n">
-        <v>35</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BA3" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>38.842975206612</v>
+        <v>38.931297709924</v>
       </c>
       <c r="BC3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD3" t="n">
-        <v>34.920634920635</v>
+        <v>34.328358208955</v>
       </c>
       <c r="BE3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BF3" t="n">
-        <v>43.103448275862</v>
+        <v>43.75</v>
       </c>
       <c r="BG3" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="BH3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BI3" t="n">
         <v>14</v>
       </c>
       <c r="BJ3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BK3" t="n">
         <v>1</v>
@@ -1577,28 +1577,28 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>130.8</v>
+        <v>139.2</v>
       </c>
       <c r="BR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BT3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BW3" t="n">
         <v>1</v>
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="CA3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB3" t="n">
         <v>14</v>
       </c>
       <c r="CC3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK3" t="n">
         <v>2</v>
@@ -1667,16 +1667,16 @@
         <v>10</v>
       </c>
       <c r="CS3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU3" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="CV3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="CZ3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DA3" t="n">
         <v>1</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="DG3" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>168987</v>
       </c>
       <c r="E4" t="n">
-        <v>6.5</v>
+        <v>6.5166666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0.9141</v>
       </c>
       <c r="L4" t="n">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="M4" t="n">
         <v>7</v>
@@ -1810,43 +1810,43 @@
         <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03196894</v>
+        <v>0.23750194</v>
       </c>
       <c r="AB4" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AF4" t="n">
-        <v>66.666666666667</v>
+        <v>68.627450980392</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1864,13 +1864,13 @@
         <v>3</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU4" t="n">
         <v>1</v>
@@ -1888,67 +1888,67 @@
         <v>2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>30</v>
+        <v>29.72972972973</v>
       </c>
       <c r="BC4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD4" t="n">
         <v>33.333333333333</v>
       </c>
       <c r="BE4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>27.272727272727</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>33</v>
+      </c>
+      <c r="BH4" t="n">
         <v>5</v>
       </c>
-      <c r="BF4" t="n">
-        <v>27.777777777778</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>28</v>
-      </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
         <v>4</v>
       </c>
-      <c r="BI4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>3</v>
-      </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>71.5</v>
+        <v>78.2</v>
       </c>
       <c r="BR4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1996,43 +1996,43 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
         <v>3</v>
       </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>2</v>
-      </c>
       <c r="CS4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CT4" t="n">
         <v>1</v>
       </c>
       <c r="CU4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="CV4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="DG4" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>789192</v>
       </c>
       <c r="E6" t="n">
-        <v>7.0928571428571</v>
+        <v>7.06</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
         <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -2477,22 +2477,22 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.1686</v>
+        <v>1.2301</v>
       </c>
       <c r="L6" t="n">
-        <v>489.5</v>
+        <v>498.5</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" t="n">
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>10</v>
+        <v>9.523809523809501</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.5776599</v>
+        <v>3.58035256</v>
       </c>
       <c r="AB6" t="n">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
@@ -2537,22 +2537,22 @@
         <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF6" t="n">
-        <v>79.35222672064801</v>
+        <v>79.68127490039799</v>
       </c>
       <c r="AG6" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -2564,7 +2564,7 @@
         <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>26.388888888889</v>
+        <v>25.333333333333</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         <v>4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BH6" t="n">
         <v>2</v>
@@ -2645,16 +2645,16 @@
         <v>1</v>
       </c>
       <c r="BO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>99.3</v>
+        <v>105.9</v>
       </c>
       <c r="BR6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS6" t="n">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="BZ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CA6" t="n">
         <v>8</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK6" t="n">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>31</v>
       </c>
       <c r="CT6" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="CU6" t="n">
         <v>26</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="DG6" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3881,16 +3881,16 @@
         <v>904835</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0266666666667</v>
+        <v>7.05</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>1063</v>
+        <v>1153</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3899,13 +3899,13 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8638</v>
+        <v>2.8877</v>
       </c>
       <c r="L10" t="n">
-        <v>531.5</v>
+        <v>576.5</v>
       </c>
       <c r="M10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" t="n">
         <v>7</v>
@@ -3914,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>6.4516129032258</v>
+        <v>6.25</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -3947,58 +3947,58 @@
         <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.05496043</v>
+        <v>2.30267043</v>
       </c>
       <c r="AB10" t="n">
-        <v>594</v>
+        <v>658</v>
       </c>
       <c r="AC10" t="n">
         <v>4</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="AF10" t="n">
-        <v>85.539215686275</v>
+        <v>85.18518518518501</v>
       </c>
       <c r="AG10" t="n">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="AH10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>127</v>
       </c>
-      <c r="AI10" t="n">
-        <v>222</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>108</v>
-      </c>
       <c r="AK10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>57.627118644068</v>
       </c>
       <c r="AM10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>30.434782608696</v>
+        <v>30.769230769231</v>
       </c>
       <c r="AO10" t="n">
         <v>7</v>
       </c>
       <c r="AP10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ10" t="n">
         <v>3</v>
       </c>
       <c r="AR10" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AS10" t="n">
         <v>2</v>
@@ -4019,31 +4019,31 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>48.148148148148</v>
+        <v>54.838709677419</v>
       </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="BB10" t="n">
-        <v>48.235294117647</v>
+        <v>51.086956521739</v>
       </c>
       <c r="BC10" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="BD10" t="n">
-        <v>53.424657534247</v>
+        <v>56.962025316456</v>
       </c>
       <c r="BE10" t="n">
         <v>2</v>
       </c>
       <c r="BF10" t="n">
-        <v>16.666666666667</v>
+        <v>15.384615384615</v>
       </c>
       <c r="BG10" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="BH10" t="n">
         <v>11</v>
@@ -4067,28 +4067,28 @@
         <v>2</v>
       </c>
       <c r="BO10" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="BR10" t="n">
         <v>16</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>15</v>
       </c>
       <c r="BS10" t="n">
         <v>6</v>
       </c>
       <c r="BT10" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BU10" t="n">
         <v>1</v>
       </c>
       <c r="BV10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BW10" t="n">
         <v>1</v>
@@ -4103,16 +4103,16 @@
         <v>15</v>
       </c>
       <c r="CA10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CB10" t="n">
         <v>7</v>
       </c>
       <c r="CC10" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="CD10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK10" t="n">
         <v>3</v>
@@ -4154,19 +4154,19 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CS10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CT10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CU10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CV10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="DA10" t="n">
         <v>3</v>
       </c>
       <c r="DB10" t="n">
-        <v>42.857142857143</v>
+        <v>33.333333333333</v>
       </c>
       <c r="DC10" t="n">
         <v>1</v>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="DG10" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4593,40 +4593,40 @@
         <v>973564</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7470588235294</v>
+        <v>6.7722222222222</v>
       </c>
       <c r="F12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G12" t="n">
         <v>17</v>
       </c>
-      <c r="G12" t="n">
-        <v>16</v>
-      </c>
       <c r="H12" t="n">
-        <v>1351</v>
+        <v>1438</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8215</v>
+        <v>1.0949</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1438</v>
       </c>
       <c r="M12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>1</v>
@@ -4659,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.26689316</v>
+        <v>1.32828256</v>
       </c>
       <c r="AB12" t="n">
-        <v>803</v>
+        <v>861</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
@@ -4671,52 +4671,52 @@
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="AF12" t="n">
-        <v>78.793774319066</v>
+        <v>78.363636363636</v>
       </c>
       <c r="AG12" t="n">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="AH12" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AI12" t="n">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AJ12" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AK12" t="n">
         <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>33.333333333333</v>
+        <v>31.372549019608</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>27.272727272727</v>
+        <v>21.428571428571</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AP12" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AS12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AU12" t="n">
         <v>6</v>
@@ -4728,46 +4728,46 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ12" t="n">
-        <v>36.363636363636</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA12" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="BB12" t="n">
-        <v>60.693641618497</v>
+        <v>59.162303664921</v>
       </c>
       <c r="BC12" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="BD12" t="n">
-        <v>62.406015037594</v>
+        <v>62.5</v>
       </c>
       <c r="BE12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF12" t="n">
-        <v>55</v>
+        <v>48.936170212766</v>
       </c>
       <c r="BG12" t="n">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="BH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BJ12" t="n">
         <v>1</v>
       </c>
       <c r="BK12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
@@ -4779,22 +4779,22 @@
         <v>2</v>
       </c>
       <c r="BO12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>114.7</v>
+        <v>121.9</v>
       </c>
       <c r="BR12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT12" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4812,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA12" t="n">
         <v>3</v>
       </c>
       <c r="CB12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC12" t="n">
         <v>55</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK12" t="n">
         <v>2</v>
@@ -4869,16 +4869,16 @@
         <v>10</v>
       </c>
       <c r="CS12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CT12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CU12" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="CV12" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4890,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="DA12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DB12" t="n">
-        <v>63.04347826087</v>
+        <v>63.265306122449</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,16 +4908,16 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="DG12" t="n">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ12" t="n">
         <v>2169668</v>
@@ -4949,16 +4949,16 @@
         <v>988476</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5015,34 +5015,34 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0846972</v>
+        <v>0.8543191999999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AF13" t="n">
-        <v>76.92307692307701</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>2</v>
@@ -5051,13 +5051,13 @@
         <v>100</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
@@ -5087,31 +5087,31 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>75</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
         <v>57.142857142857</v>
       </c>
       <c r="BC13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD13" t="n">
-        <v>50</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BE13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF13" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BG13" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="BH13" t="n">
         <v>1</v>
@@ -5135,106 +5135,106 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="BR13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS13" t="n">
         <v>6</v>
       </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>4</v>
-      </c>
       <c r="CT13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CU13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="DG13" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5661,32 +5661,32 @@
         <v>842526</v>
       </c>
       <c r="E15" t="n">
-        <v>6.775</v>
+        <v>6.8</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>601</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4129</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>6</v>
       </c>
-      <c r="H15" t="n">
-        <v>527</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.3366</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
       <c r="N15" t="n">
         <v>2</v>
       </c>
@@ -5724,43 +5724,43 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.25521586</v>
+        <v>0.5620048600000001</v>
       </c>
       <c r="AB15" t="n">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="n">
-        <v>80.530973451327</v>
+        <v>81.944444444444</v>
       </c>
       <c r="AG15" t="n">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AH15" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>58.333333333333</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="AM15" t="n">
         <v>1</v>
@@ -5769,25 +5769,25 @@
         <v>7.1428571428571</v>
       </c>
       <c r="AO15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS15" t="n">
         <v>4</v>
       </c>
-      <c r="AP15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>3</v>
-      </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -5802,19 +5802,19 @@
         <v>3</v>
       </c>
       <c r="AZ15" t="n">
-        <v>50</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>40.425531914894</v>
+      </c>
+      <c r="BC15" t="n">
         <v>17</v>
       </c>
-      <c r="BB15" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>15</v>
-      </c>
       <c r="BD15" t="n">
-        <v>51.724137931034</v>
+        <v>47.222222222222</v>
       </c>
       <c r="BE15" t="n">
         <v>2</v>
@@ -5823,10 +5823,10 @@
         <v>18.181818181818</v>
       </c>
       <c r="BG15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BH15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI15" t="n">
         <v>4</v>
@@ -5847,22 +5847,22 @@
         <v>2</v>
       </c>
       <c r="BO15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>54.2</v>
+        <v>61.2</v>
       </c>
       <c r="BR15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5880,70 +5880,70 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
         <v>3</v>
       </c>
-      <c r="CA15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>2</v>
-      </c>
       <c r="CS15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CT15" t="n">
         <v>14</v>
       </c>
       <c r="CU15" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CV15" t="n">
         <v>9</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DA15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DB15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="DG15" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6017,16 +6017,16 @@
         <v>1064305</v>
       </c>
       <c r="E16" t="n">
-        <v>6.9894736842105</v>
+        <v>6.96</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6083,40 +6083,40 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.9692415599999999</v>
+        <v>0.97990476</v>
       </c>
       <c r="AB16" t="n">
-        <v>1114</v>
+        <v>1173</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="AF16" t="n">
-        <v>90.53254437869801</v>
+        <v>90.326209223847</v>
       </c>
       <c r="AG16" t="n">
-        <v>845</v>
+        <v>889</v>
       </c>
       <c r="AH16" t="n">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="AI16" t="n">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="AJ16" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>62.121212121212</v>
+        <v>61.194029850746</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -6125,22 +6125,22 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AS16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AU16" t="n">
         <v>3</v>
@@ -6158,34 +6158,34 @@
         <v>8</v>
       </c>
       <c r="AZ16" t="n">
-        <v>53.333333333333</v>
+        <v>50</v>
       </c>
       <c r="BA16" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="BB16" t="n">
-        <v>63.74269005848</v>
+        <v>62.5</v>
       </c>
       <c r="BC16" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD16" t="n">
-        <v>63.2</v>
+        <v>61.654135338346</v>
       </c>
       <c r="BE16" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BF16" t="n">
-        <v>65.217391304348</v>
+        <v>64.705882352941</v>
       </c>
       <c r="BG16" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="BH16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BI16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
@@ -6203,22 +6203,22 @@
         <v>6</v>
       </c>
       <c r="BO16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>132.8</v>
+        <v>139.2</v>
       </c>
       <c r="BR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6242,13 +6242,13 @@
         <v>7</v>
       </c>
       <c r="CB16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC16" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CD16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CK16" t="n">
         <v>3</v>
@@ -6290,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CS16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CT16" t="n">
         <v>2</v>
       </c>
       <c r="CU16" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="CV16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="DA16" t="n">
         <v>16</v>
       </c>
       <c r="DB16" t="n">
-        <v>41.025641025641</v>
+        <v>39.024390243902</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="DG16" t="n">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6373,16 +6373,16 @@
         <v>1405212</v>
       </c>
       <c r="E17" t="n">
-        <v>7.2722222222222</v>
+        <v>7.2263157894737</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>1620</v>
+        <v>1710</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6391,13 +6391,13 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2701</v>
+        <v>2.4447</v>
       </c>
       <c r="L17" t="n">
-        <v>405</v>
+        <v>427.5</v>
       </c>
       <c r="M17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17" t="n">
         <v>6</v>
@@ -6406,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>19.047619047619</v>
+        <v>18.181818181818</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6439,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.57160416</v>
+        <v>0.58438786</v>
       </c>
       <c r="AB17" t="n">
-        <v>1415</v>
+        <v>1514</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6451,28 +6451,28 @@
         <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>915</v>
+        <v>975</v>
       </c>
       <c r="AF17" t="n">
-        <v>84.409594095941</v>
+        <v>84.124245038827</v>
       </c>
       <c r="AG17" t="n">
-        <v>1084</v>
+        <v>1159</v>
       </c>
       <c r="AH17" t="n">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="AI17" t="n">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="AJ17" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AK17" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
-        <v>46.969696969697</v>
+        <v>44.520547945205</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -6481,73 +6481,73 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS17" t="n">
         <v>4</v>
       </c>
       <c r="AT17" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
         <v>5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>4</v>
       </c>
       <c r="AZ17" t="n">
         <v>100</v>
       </c>
       <c r="BA17" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="BB17" t="n">
-        <v>69.230769230769</v>
+        <v>68.39622641509401</v>
       </c>
       <c r="BC17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BD17" t="n">
-        <v>52.857142857143</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BE17" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="BF17" t="n">
-        <v>78.40000000000001</v>
+        <v>77.205882352941</v>
       </c>
       <c r="BG17" t="n">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="BH17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BI17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BJ17" t="n">
         <v>1</v>
       </c>
       <c r="BK17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6559,22 +6559,22 @@
         <v>5</v>
       </c>
       <c r="BO17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>130.9</v>
+        <v>137.3</v>
       </c>
       <c r="BR17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS17" t="n">
         <v>4</v>
       </c>
       <c r="BT17" t="n">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6592,19 +6592,19 @@
         <v>1</v>
       </c>
       <c r="BZ17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CA17" t="n">
         <v>4</v>
       </c>
       <c r="CB17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC17" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="CD17" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CK17" t="n">
         <v>3</v>
@@ -6649,16 +6649,16 @@
         <v>8</v>
       </c>
       <c r="CS17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CT17" t="n">
         <v>2</v>
       </c>
       <c r="CU17" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="CV17" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="DA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB17" t="n">
-        <v>66.666666666667</v>
+        <v>69.230769230769</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="DG17" t="n">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="DH17" t="n">
         <v>14</v>
@@ -6729,16 +6729,16 @@
         <v>1035752</v>
       </c>
       <c r="E18" t="n">
-        <v>6.61875</v>
+        <v>6.6235294117647</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
         <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6792,43 +6792,43 @@
         <v>1</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.42918407</v>
+        <v>0.42965467</v>
       </c>
       <c r="AB18" t="n">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="n">
-        <v>78.645833333333</v>
+        <v>78.680203045685</v>
       </c>
       <c r="AG18" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AH18" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
       </c>
       <c r="AK18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>45.161290322581</v>
+        <v>46.875</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -6846,13 +6846,13 @@
         <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AS18" t="n">
         <v>7</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -6867,31 +6867,31 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>46.428571428571</v>
+        <v>48.387096774194</v>
       </c>
       <c r="BA18" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB18" t="n">
         <v>50</v>
       </c>
-      <c r="BB18" t="n">
-        <v>49.019607843137</v>
-      </c>
       <c r="BC18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BD18" t="n">
-        <v>50</v>
+        <v>50.574712643678</v>
       </c>
       <c r="BE18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF18" t="n">
-        <v>44.444444444444</v>
+        <v>47.368421052632</v>
       </c>
       <c r="BG18" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="BH18" t="n">
         <v>11</v>
@@ -6915,22 +6915,22 @@
         <v>1</v>
       </c>
       <c r="BO18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>105.9</v>
+        <v>112.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6957,10 +6957,10 @@
         <v>10</v>
       </c>
       <c r="CC18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CD18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -7002,16 +7002,16 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS18" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CT18" t="n">
         <v>20</v>
       </c>
       <c r="CU18" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CV18" t="n">
         <v>10</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DA18" t="n">
         <v>10</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="DG18" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7085,16 +7085,16 @@
         <v>798303</v>
       </c>
       <c r="E19" t="n">
-        <v>6.99</v>
+        <v>6.9809523809524</v>
       </c>
       <c r="F19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" t="n">
         <v>20</v>
       </c>
-      <c r="G19" t="n">
-        <v>19</v>
-      </c>
       <c r="H19" t="n">
-        <v>1733</v>
+        <v>1823</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7103,19 +7103,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9283</v>
+        <v>1.0493</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -7151,10 +7151,10 @@
         <v>4</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.45401176</v>
+        <v>3.48288716</v>
       </c>
       <c r="AB19" t="n">
-        <v>1387</v>
+        <v>1441</v>
       </c>
       <c r="AC19" t="n">
         <v>5</v>
@@ -7163,52 +7163,52 @@
         <v>37</v>
       </c>
       <c r="AE19" t="n">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="AF19" t="n">
-        <v>75.76832151300199</v>
+        <v>75.342465753425</v>
       </c>
       <c r="AG19" t="n">
-        <v>846</v>
+        <v>876</v>
       </c>
       <c r="AH19" t="n">
+        <v>335</v>
+      </c>
+      <c r="AI19" t="n">
         <v>325</v>
       </c>
-      <c r="AI19" t="n">
-        <v>316</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AK19" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AL19" t="n">
-        <v>41.843971631206</v>
+        <v>41.780821917808</v>
       </c>
       <c r="AM19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN19" t="n">
-        <v>27.433628318584</v>
+        <v>27.586206896552</v>
       </c>
       <c r="AO19" t="n">
         <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AS19" t="n">
         <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU19" t="n">
         <v>4</v>
@@ -7229,31 +7229,31 @@
         <v>68</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="BB19" t="n">
-        <v>56.424581005587</v>
+        <v>56.451612903226</v>
       </c>
       <c r="BC19" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BD19" t="n">
-        <v>58.974358974359</v>
+        <v>59.748427672956</v>
       </c>
       <c r="BE19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF19" t="n">
-        <v>39.130434782609</v>
+        <v>37.037037037037</v>
       </c>
       <c r="BG19" t="n">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="BH19" t="n">
         <v>27</v>
       </c>
       <c r="BI19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BJ19" t="n">
         <v>1</v>
@@ -7271,22 +7271,22 @@
         <v>5</v>
       </c>
       <c r="BO19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>139.8</v>
+        <v>146.6</v>
       </c>
       <c r="BR19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS19" t="n">
         <v>4</v>
       </c>
       <c r="BT19" t="n">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>2</v>
       </c>
       <c r="BZ19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CA19" t="n">
         <v>13</v>
@@ -7313,10 +7313,10 @@
         <v>9</v>
       </c>
       <c r="CC19" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="CD19" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CK19" t="n">
         <v>2</v>
@@ -7364,13 +7364,13 @@
         <v>25</v>
       </c>
       <c r="CT19" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="CU19" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="CV19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7382,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="DA19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DB19" t="n">
-        <v>45.238095238095</v>
+        <v>45.454545454545</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,16 +7400,16 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="DG19" t="n">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ19" t="n">
         <v>2169630</v>
@@ -7441,16 +7441,16 @@
         <v>801003</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9818181818182</v>
+        <v>6.9416666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>879</v>
+        <v>969</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.57465261</v>
+        <v>0.60815201</v>
       </c>
       <c r="AB20" t="n">
-        <v>754</v>
+        <v>831</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,28 +7519,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="AF20" t="n">
-        <v>85.31468531468499</v>
+        <v>84.95297805642601</v>
       </c>
       <c r="AG20" t="n">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="AH20" t="n">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="AI20" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AJ20" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>37.28813559322</v>
+        <v>37.313432835821</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7552,25 +7552,25 @@
         <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS20" t="n">
         <v>5</v>
       </c>
       <c r="AT20" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
@@ -7579,37 +7579,37 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ20" t="n">
         <v>100</v>
       </c>
       <c r="BA20" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BB20" t="n">
-        <v>67.39130434782599</v>
+        <v>66</v>
       </c>
       <c r="BC20" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BD20" t="n">
-        <v>64.705882352941</v>
+        <v>65.454545454545</v>
       </c>
       <c r="BE20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BF20" t="n">
-        <v>70.731707317073</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BG20" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="BH20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7627,22 +7627,22 @@
         <v>3</v>
       </c>
       <c r="BO20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="BR20" t="n">
         <v>12</v>
       </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>11</v>
-      </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7669,10 +7669,10 @@
         <v>4</v>
       </c>
       <c r="CC20" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="CD20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CK20" t="n">
         <v>1</v>
@@ -7717,16 +7717,16 @@
         <v>1</v>
       </c>
       <c r="CS20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT20" t="n">
         <v>2</v>
       </c>
       <c r="CU20" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CV20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="DA20" t="n">
         <v>11</v>
       </c>
       <c r="DB20" t="n">
-        <v>55</v>
+        <v>52.380952380952</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,13 +7756,13 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="DG20" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="DH20" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="DI20" t="n">
         <v>7</v>
@@ -8153,16 +8153,16 @@
         <v>945532</v>
       </c>
       <c r="E22" t="n">
-        <v>6.6357142857143</v>
+        <v>6.6133333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
         <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8219,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.37875305</v>
+        <v>0.37878649</v>
       </c>
       <c r="AB22" t="n">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8231,16 +8231,16 @@
         <v>2</v>
       </c>
       <c r="AE22" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AF22" t="n">
-        <v>95.087719298246</v>
+        <v>95.10489510489499</v>
       </c>
       <c r="AG22" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AH22" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AI22" t="n">
         <v>154</v>
@@ -8300,7 +8300,7 @@
         <v>45</v>
       </c>
       <c r="BB22" t="n">
-        <v>52.941176470588</v>
+        <v>51.724137931034</v>
       </c>
       <c r="BC22" t="n">
         <v>33</v>
@@ -8312,7 +8312,7 @@
         <v>12</v>
       </c>
       <c r="BF22" t="n">
-        <v>46.153846153846</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BG22" t="n">
         <v>48</v>
@@ -8339,16 +8339,16 @@
         <v>3</v>
       </c>
       <c r="BO22" t="n">
+        <v>16</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="BR22" t="n">
         <v>15</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>14</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK22" t="n">
         <v>1</v>
@@ -8435,10 +8435,10 @@
         <v>0</v>
       </c>
       <c r="CU22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CV22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="DG22" t="n">
         <v>169</v>
@@ -8509,16 +8509,16 @@
         <v>1102528</v>
       </c>
       <c r="E23" t="n">
-        <v>6.4230769230769</v>
+        <v>6.3714285714286</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
         <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8575,10 +8575,10 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.63515739</v>
+        <v>0.63925244</v>
       </c>
       <c r="AB23" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AC23" t="n">
         <v>2</v>
@@ -8587,22 +8587,22 @@
         <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF23" t="n">
-        <v>73.80952380952399</v>
+        <v>73.529411764706</v>
       </c>
       <c r="AG23" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AH23" t="n">
         <v>49</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="n">
         <v>5</v>
@@ -8632,7 +8632,7 @@
         <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" t="n">
         <v>0</v>
@@ -8656,25 +8656,25 @@
         <v>20</v>
       </c>
       <c r="BB23" t="n">
-        <v>38.461538461538</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
       </c>
       <c r="BD23" t="n">
-        <v>35</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BE23" t="n">
         <v>6</v>
       </c>
       <c r="BF23" t="n">
-        <v>50</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BG23" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI23" t="n">
         <v>1</v>
@@ -8683,7 +8683,7 @@
         <v>4</v>
       </c>
       <c r="BK23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL23" t="n">
         <v>0</v>
@@ -8695,22 +8695,22 @@
         <v>0</v>
       </c>
       <c r="BO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>83.5</v>
+        <v>89.2</v>
       </c>
       <c r="BR23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS23" t="n">
         <v>1</v>
       </c>
       <c r="BT23" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8734,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="CB23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC23" t="n">
         <v>24</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CK23" t="n">
         <v>2</v>
@@ -8791,10 +8791,10 @@
         <v>25</v>
       </c>
       <c r="CU23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CV23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8824,10 +8824,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="DG23" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -8865,16 +8865,16 @@
         <v>113442</v>
       </c>
       <c r="E24" t="n">
-        <v>7.185</v>
+        <v>7.1619047619048</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -8931,10 +8931,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06055355</v>
+        <v>0.06903012</v>
       </c>
       <c r="AB24" t="n">
-        <v>1160</v>
+        <v>1218</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8943,28 +8943,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>773</v>
+        <v>813</v>
       </c>
       <c r="AF24" t="n">
-        <v>77.06879361914299</v>
+        <v>77.207977207977</v>
       </c>
       <c r="AG24" t="n">
-        <v>1003</v>
+        <v>1053</v>
       </c>
       <c r="AH24" t="n">
-        <v>691</v>
+        <v>729</v>
       </c>
       <c r="AI24" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AL24" t="n">
-        <v>39.2</v>
+        <v>38.974358974359</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AR24" t="n">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW24" t="n">
         <v>1</v>
@@ -9027,7 +9027,7 @@
         <v>80</v>
       </c>
       <c r="BG24" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -9045,28 +9045,28 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BN24" t="n">
         <v>6</v>
       </c>
       <c r="BO24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BP24" t="n">
         <v>1</v>
       </c>
       <c r="BQ24" t="n">
-        <v>143.7</v>
+        <v>150.4</v>
       </c>
       <c r="BR24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9093,10 +9093,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="CD24" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9105,16 +9105,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CH24" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CI24" t="n">
         <v>23</v>
       </c>
       <c r="CJ24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CK24" t="n">
         <v>3</v>
@@ -9123,7 +9123,7 @@
         <v>11</v>
       </c>
       <c r="CM24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN24" t="n">
         <v>8</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9180,13 +9180,13 @@
         <v>14</v>
       </c>
       <c r="DF24" t="n">
-        <v>736</v>
+        <v>776</v>
       </c>
       <c r="DG24" t="n">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="DH24" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>0.2512</v>
+        <v>0.4993</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/Hamburger SV_stats.xlsx
+++ b/sofaplayer/Bundesliga/Hamburger SV_stats.xlsx
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.22577389</v>
+        <v>0.30353649</v>
       </c>
       <c r="AB2" t="n">
         <v>121</v>
@@ -1116,10 +1116,10 @@
         <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>60.759493670886</v>
+        <v>61.538461538462</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="n">
         <v>14</v>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="BT2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="DG2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>1012235</v>
       </c>
       <c r="E3" t="n">
-        <v>6.6285714285714</v>
+        <v>6.6333333333333</v>
       </c>
       <c r="F3" t="n">
         <v>21</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8479</v>
+        <v>6.0372</v>
       </c>
       <c r="L3" t="n">
         <v>350</v>
@@ -1538,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>38.931297709924</v>
+        <v>39.230769230769</v>
       </c>
       <c r="BC3" t="n">
         <v>23</v>
@@ -1550,10 +1550,10 @@
         <v>28</v>
       </c>
       <c r="BF3" t="n">
-        <v>43.75</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG3" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BH3" t="n">
         <v>16</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>139.2</v>
+        <v>139.3</v>
       </c>
       <c r="BR3" t="n">
         <v>21</v>
@@ -1619,10 +1619,10 @@
         <v>14</v>
       </c>
       <c r="CC3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>13</v>
       </c>
       <c r="CU3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CV3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>35</v>
       </c>
       <c r="AF4" t="n">
-        <v>68.627450980392</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="n">
         <v>14</v>
@@ -1894,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>29.72972972973</v>
+        <v>30.555555555556</v>
       </c>
       <c r="BC4" t="n">
         <v>5</v>
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="BF4" t="n">
-        <v>27.272727272727</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BG4" t="n">
         <v>33</v>
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="BT4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="CU4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>16</v>
       </c>
       <c r="DG4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>904835</v>
       </c>
       <c r="E10" t="n">
-        <v>7.05</v>
+        <v>7.0375</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -3899,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8877</v>
+        <v>2.9036</v>
       </c>
       <c r="L10" t="n">
         <v>576.5</v>
@@ -3947,10 +3947,10 @@
         <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.30267043</v>
+        <v>2.30480443</v>
       </c>
       <c r="AB10" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AC10" t="n">
         <v>4</v>
@@ -3977,10 +3977,10 @@
         <v>127</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL10" t="n">
-        <v>57.627118644068</v>
+        <v>58.333333333333</v>
       </c>
       <c r="AM10" t="n">
         <v>8</v>
@@ -4019,28 +4019,28 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>54.838709677419</v>
+        <v>53.333333333333</v>
       </c>
       <c r="BA10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB10" t="n">
-        <v>51.086956521739</v>
+        <v>50</v>
       </c>
       <c r="BC10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD10" t="n">
-        <v>56.962025316456</v>
+        <v>56.410256410256</v>
       </c>
       <c r="BE10" t="n">
         <v>2</v>
       </c>
       <c r="BF10" t="n">
-        <v>15.384615384615</v>
+        <v>14.285714285714</v>
       </c>
       <c r="BG10" t="n">
         <v>131</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
       <c r="BR10" t="n">
         <v>16</v>
@@ -4109,7 +4109,7 @@
         <v>7</v>
       </c>
       <c r="CC10" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CD10" t="n">
         <v>28</v>
@@ -4157,16 +4157,16 @@
         <v>23</v>
       </c>
       <c r="CS10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CT10" t="n">
         <v>26</v>
       </c>
       <c r="CU10" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CV10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="DA10" t="n">
         <v>3</v>
@@ -4593,7 +4593,7 @@
         <v>973564</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7722222222222</v>
+        <v>6.7666666666667</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -4662,7 +4662,7 @@
         <v>1.32828256</v>
       </c>
       <c r="AB12" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
@@ -4701,7 +4701,7 @@
         <v>21.428571428571</v>
       </c>
       <c r="AO12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AP12" t="n">
         <v>49</v>
@@ -4731,22 +4731,22 @@
         <v>1</v>
       </c>
       <c r="AY12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>42.857142857143</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BA12" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BB12" t="n">
-        <v>59.162303664921</v>
+        <v>58.947368421053</v>
       </c>
       <c r="BC12" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BD12" t="n">
-        <v>62.5</v>
+        <v>62.237762237762</v>
       </c>
       <c r="BE12" t="n">
         <v>23</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>121.9</v>
+        <v>121.8</v>
       </c>
       <c r="BR12" t="n">
         <v>18</v>
@@ -4869,7 +4869,7 @@
         <v>10</v>
       </c>
       <c r="CS12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CT12" t="n">
         <v>14</v>
@@ -5802,7 +5802,7 @@
         <v>3</v>
       </c>
       <c r="AZ15" t="n">
-        <v>42.857142857143</v>
+        <v>50</v>
       </c>
       <c r="BA15" t="n">
         <v>19</v>
@@ -5886,13 +5886,13 @@
         <v>2</v>
       </c>
       <c r="CB15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5937,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="CS15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CT15" t="n">
         <v>14</v>
@@ -6083,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.97990476</v>
+        <v>0.97928686</v>
       </c>
       <c r="AB16" t="n">
         <v>1173</v>
@@ -6095,19 +6095,19 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AF16" t="n">
-        <v>90.326209223847</v>
+        <v>90.406320541761</v>
       </c>
       <c r="AG16" t="n">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AH16" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AI16" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AJ16" t="n">
         <v>69</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP16" t="n">
         <v>41</v>
@@ -6140,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AU16" t="n">
         <v>3</v>
@@ -6179,7 +6179,7 @@
         <v>64.705882352941</v>
       </c>
       <c r="BG16" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BH16" t="n">
         <v>29</v>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6245,10 +6245,10 @@
         <v>5</v>
       </c>
       <c r="CC16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CD16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6317,10 +6317,10 @@
         <v>67</v>
       </c>
       <c r="DA16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB16" t="n">
-        <v>39.024390243902</v>
+        <v>41.463414634146</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="DG16" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.58438786</v>
+        <v>0.58432916</v>
       </c>
       <c r="AB17" t="n">
         <v>1514</v>
@@ -6460,10 +6460,10 @@
         <v>1159</v>
       </c>
       <c r="AH17" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AI17" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ17" t="n">
         <v>68</v>
@@ -6520,7 +6520,7 @@
         <v>145</v>
       </c>
       <c r="BB17" t="n">
-        <v>68.39622641509401</v>
+        <v>68.075117370892</v>
       </c>
       <c r="BC17" t="n">
         <v>40</v>
@@ -6532,7 +6532,7 @@
         <v>105</v>
       </c>
       <c r="BF17" t="n">
-        <v>77.205882352941</v>
+        <v>76.642335766423</v>
       </c>
       <c r="BG17" t="n">
         <v>215</v>
@@ -6655,10 +6655,10 @@
         <v>2</v>
       </c>
       <c r="CU17" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CV17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="DG17" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="DH17" t="n">
         <v>14</v>
@@ -6795,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.42965467</v>
+        <v>0.42965376</v>
       </c>
       <c r="AB18" t="n">
         <v>434</v>
@@ -6807,16 +6807,16 @@
         <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="n">
-        <v>78.680203045685</v>
+        <v>78.571428571429</v>
       </c>
       <c r="AG18" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH18" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="n">
         <v>67</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DG18" t="n">
         <v>95</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0493</v>
+        <v>1.0858</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU19" t="n">
         <v>4</v>
@@ -7247,7 +7247,7 @@
         <v>37.037037037037</v>
       </c>
       <c r="BG19" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="BH19" t="n">
         <v>27</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.60815201</v>
+        <v>0.60811991</v>
       </c>
       <c r="AB20" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,16 +7519,16 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF20" t="n">
-        <v>84.95297805642601</v>
+        <v>84.929356357928</v>
       </c>
       <c r="AG20" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AH20" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AI20" t="n">
         <v>147</v>
@@ -7537,10 +7537,10 @@
         <v>47</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>37.313432835821</v>
+        <v>36.363636363636</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
@@ -7564,7 +7564,7 @@
         <v>5</v>
       </c>
       <c r="AT20" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>66</v>
       </c>
       <c r="BB20" t="n">
-        <v>66</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BC20" t="n">
         <v>36</v>
@@ -7600,7 +7600,7 @@
         <v>30</v>
       </c>
       <c r="BF20" t="n">
-        <v>66.666666666667</v>
+        <v>68.181818181818</v>
       </c>
       <c r="BG20" t="n">
         <v>121</v>
@@ -7669,10 +7669,10 @@
         <v>4</v>
       </c>
       <c r="CC20" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CD20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7723,10 +7723,10 @@
         <v>2</v>
       </c>
       <c r="CU20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CV20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="DA20" t="n">
         <v>11</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="DG20" t="n">
         <v>210</v>
@@ -8509,7 +8509,7 @@
         <v>1102528</v>
       </c>
       <c r="E23" t="n">
-        <v>6.3714285714286</v>
+        <v>6.4</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>89.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="BR23" t="n">
         <v>14</v>
